--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45002</v>
+        <v>45014</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,31 +684,111 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
         <v>18000</v>
       </c>
       <c r="P4" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>60</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P5" t="n">
         <v>17500</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>972</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44999</v>
+        <v>45014</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
         <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45014</v>
+        <v>45001</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
         <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45002</v>
+        <v>44999</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
         <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45001</v>
+        <v>45020</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,31 +764,111 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>938</v>
+      </c>
+      <c r="T5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>30</v>
+      </c>
+      <c r="N6" t="n">
         <v>18000</v>
       </c>
-      <c r="P5" t="n">
-        <v>17500</v>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="O6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S5" t="n">
-        <v>972</v>
-      </c>
-      <c r="T5" t="n">
+      <c r="S6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T6" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45002</v>
+        <v>45021</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,31 +844,111 @@
         </is>
       </c>
       <c r="M6" t="n">
+        <v>60</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>15500</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>861</v>
+      </c>
+      <c r="T6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>30</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N7" t="n">
         <v>18000</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O7" t="n">
         <v>18000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>18000</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S6" t="n">
+      <c r="S7" t="n">
         <v>1000</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T7" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44999</v>
+        <v>45028</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
         <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45020</v>
+        <v>44999</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>938</v>
+        <v>972</v>
       </c>
       <c r="T5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>861</v>
+        <v>938</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45002</v>
+        <v>45021</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,31 +924,111 @@
         </is>
       </c>
       <c r="M7" t="n">
+        <v>60</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>15500</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>861</v>
+      </c>
+      <c r="T7" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>30</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N8" t="n">
         <v>18000</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O8" t="n">
         <v>18000</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>18000</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S7" t="n">
+      <c r="S8" t="n">
         <v>1000</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T8" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45028</v>
+        <v>45030</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44999</v>
+        <v>45028</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
         <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45020</v>
+        <v>44999</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>938</v>
+        <v>972</v>
       </c>
       <c r="T6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
         <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>861</v>
+        <v>938</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45002</v>
+        <v>45021</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,31 +1004,111 @@
         </is>
       </c>
       <c r="M8" t="n">
+        <v>60</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>15500</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>861</v>
+      </c>
+      <c r="T8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>30</v>
       </c>
-      <c r="N8" t="n">
-        <v>18000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>18000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>18000</v>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="N9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S8" t="n">
+      <c r="S9" t="n">
         <v>1000</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T9" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45020</v>
+        <v>45033</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>938</v>
+        <v>861</v>
       </c>
       <c r="T7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>861</v>
+        <v>938</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45002</v>
+        <v>45021</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,31 +1084,111 @@
         </is>
       </c>
       <c r="M9" t="n">
+        <v>60</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>15500</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>861</v>
+      </c>
+      <c r="T9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>30</v>
       </c>
-      <c r="N9" t="n">
-        <v>18000</v>
-      </c>
-      <c r="O9" t="n">
-        <v>18000</v>
-      </c>
-      <c r="P9" t="n">
-        <v>18000</v>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="N10" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S9" t="n">
+      <c r="S10" t="n">
         <v>1000</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T10" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44999</v>
+        <v>45036</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -847,13 +847,13 @@
         <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45033</v>
+        <v>44999</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -927,13 +927,13 @@
         <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45020</v>
+        <v>45033</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>938</v>
+        <v>861</v>
       </c>
       <c r="T8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
         <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>861</v>
+        <v>938</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45002</v>
+        <v>45021</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,31 +1164,111 @@
         </is>
       </c>
       <c r="M10" t="n">
+        <v>60</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>15500</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>861</v>
+      </c>
+      <c r="T10" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>30</v>
       </c>
-      <c r="N10" t="n">
-        <v>18000</v>
-      </c>
-      <c r="O10" t="n">
-        <v>18000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>18000</v>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="N11" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S10" t="n">
+      <c r="S11" t="n">
         <v>1000</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T11" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45028</v>
+        <v>45037</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45036</v>
+        <v>45028</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44999</v>
+        <v>45036</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -927,13 +927,13 @@
         <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45033</v>
+        <v>44999</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1007,13 +1007,13 @@
         <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45020</v>
+        <v>45033</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>938</v>
+        <v>861</v>
       </c>
       <c r="T9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
         <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>861</v>
+        <v>938</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45002</v>
+        <v>45021</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,31 +1244,111 @@
         </is>
       </c>
       <c r="M11" t="n">
+        <v>60</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>15500</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>861</v>
+      </c>
+      <c r="T11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>30</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N12" t="n">
         <v>18000</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O12" t="n">
         <v>18000</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>18000</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S11" t="n">
+      <c r="S12" t="n">
         <v>1000</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T12" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,6 +1352,86 @@
         <v>18</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45041</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>60</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>833</v>
+      </c>
+      <c r="T13" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45014</v>
+        <v>45033</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45001</v>
+        <v>45028</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
         <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45030</v>
+        <v>45020</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45037</v>
+        <v>45002</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45028</v>
+        <v>45001</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
         <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45036</v>
+        <v>44999</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -927,13 +927,13 @@
         <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44999</v>
+        <v>45037</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1007,13 +1007,13 @@
         <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>972</v>
+        <v>889</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45033</v>
+        <v>45014</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>938</v>
+        <v>861</v>
       </c>
       <c r="T10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45021</v>
+        <v>45030</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45002</v>
+        <v>45041</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45041</v>
+        <v>45036</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1410,10 +1410,10 @@
         <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45033</v>
+        <v>45043</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -530,10 +530,10 @@
         <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45028</v>
+        <v>45033</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45020</v>
+        <v>45028</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -687,29 +687,29 @@
         <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45002</v>
+        <v>45020</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
         <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45037</v>
+        <v>44999</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1007,13 +1007,13 @@
         <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>889</v>
+        <v>972</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45014</v>
+        <v>45037</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45021</v>
+        <v>45014</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45030</v>
+        <v>45021</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45041</v>
+        <v>45030</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1410,25 +1410,105 @@
         <v>15000</v>
       </c>
       <c r="O13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>833</v>
+      </c>
+      <c r="T13" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45036</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>60</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O14" t="n">
         <v>16000</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P14" t="n">
         <v>15500</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S13" t="n">
+      <c r="S14" t="n">
         <v>861</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T14" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45021</v>
+        <v>45044</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1250,10 +1250,10 @@
         <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45030</v>
+        <v>45021</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45041</v>
+        <v>45030</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1490,25 +1490,105 @@
         <v>15000</v>
       </c>
       <c r="O14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>833</v>
+      </c>
+      <c r="T14" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45036</v>
+      </c>
+      <c r="E15" t="n">
+        <v>16</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>60</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O15" t="n">
         <v>16000</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>15500</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S14" t="n">
+      <c r="S15" t="n">
         <v>861</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T15" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N14" t="n">
         <v>15000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1570,25 +1570,105 @@
         <v>15000</v>
       </c>
       <c r="O15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>833</v>
+      </c>
+      <c r="T15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45036</v>
+      </c>
+      <c r="E16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>60</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O16" t="n">
         <v>16000</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>15500</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S15" t="n">
+      <c r="S16" t="n">
         <v>861</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T16" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45028</v>
+        <v>45050</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45020</v>
+        <v>45028</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -767,29 +767,29 @@
         <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45002</v>
+        <v>45020</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
         <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45037</v>
+        <v>44999</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1087,13 +1087,13 @@
         <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>889</v>
+        <v>972</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45014</v>
+        <v>45037</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45044</v>
+        <v>45014</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45021</v>
+        <v>45044</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1330,10 +1330,10 @@
         <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45030</v>
+        <v>45021</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45049</v>
+        <v>45030</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N15" t="n">
         <v>15000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1650,25 +1650,105 @@
         <v>15000</v>
       </c>
       <c r="O16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>833</v>
+      </c>
+      <c r="T16" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45036</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>60</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O17" t="n">
         <v>16000</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>15500</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S16" t="n">
+      <c r="S17" t="n">
         <v>861</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T17" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45043</v>
+        <v>45037</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -527,13 +527,13 @@
         <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45033</v>
+        <v>45036</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45050</v>
+        <v>45044</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45028</v>
+        <v>45049</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45020</v>
+        <v>45002</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45002</v>
+        <v>45033</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45001</v>
+        <v>45021</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1007,13 +1007,13 @@
         <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44999</v>
+        <v>45030</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
         <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45037</v>
+        <v>45041</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1167,13 +1167,13 @@
         <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45014</v>
+        <v>45050</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45044</v>
+        <v>45043</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45030</v>
+        <v>45001</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
         <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45049</v>
+        <v>45020</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
         <v>15000</v>
@@ -1577,19 +1577,19 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>833</v>
+        <v>938</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45041</v>
+        <v>45014</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45036</v>
+        <v>44999</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1727,13 +1727,13 @@
         <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45021</v>
+        <v>45062</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P8" t="n">
-        <v>15500</v>
+        <v>13444</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>861</v>
+        <v>747</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45030</v>
+        <v>45021</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45041</v>
+        <v>45030</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45050</v>
+        <v>45041</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45043</v>
+        <v>45050</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45028</v>
+        <v>45043</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45001</v>
+        <v>45028</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
         <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45020</v>
+        <v>45001</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>938</v>
+        <v>972</v>
       </c>
       <c r="T15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45014</v>
+        <v>45020</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44999</v>
+        <v>45014</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,31 +1724,111 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
         <v>18000</v>
       </c>
       <c r="P17" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>60</v>
+      </c>
+      <c r="N18" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P18" t="n">
         <v>17500</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S17" t="n">
+      <c r="S18" t="n">
         <v>972</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T18" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -527,13 +527,13 @@
         <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45036</v>
+        <v>45043</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -610,10 +610,10 @@
         <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45044</v>
+        <v>45030</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45049</v>
+        <v>45041</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
         <v>15000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45002</v>
+        <v>45001</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
         <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45033</v>
+        <v>45028</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45062</v>
+        <v>45014</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>13444</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>747</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45021</v>
+        <v>45050</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P9" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>861</v>
+        <v>778</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45030</v>
+        <v>45002</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
         <v>18000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
         <v>15000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45050</v>
+        <v>44999</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>778</v>
+        <v>972</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45043</v>
+        <v>45020</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
         <v>15000</v>
@@ -1417,19 +1417,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>833</v>
+        <v>938</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45028</v>
+        <v>45062</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>13444</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>747</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45001</v>
+        <v>45033</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1567,13 +1567,13 @@
         <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45020</v>
+        <v>45036</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
         <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>938</v>
+        <v>861</v>
       </c>
       <c r="T16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45014</v>
+        <v>45021</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44999</v>
+        <v>45037</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1807,13 +1807,13 @@
         <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>972</v>
+        <v>889</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45044</v>
+        <v>45033</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -530,10 +530,10 @@
         <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45043</v>
+        <v>45014</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45041</v>
+        <v>45062</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>13444</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>833</v>
+        <v>747</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45001</v>
+        <v>44999</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45028</v>
+        <v>45049</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45014</v>
+        <v>45020</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45002</v>
+        <v>45028</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
         <v>18000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45049</v>
+        <v>45044</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
         <v>15000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44999</v>
+        <v>45002</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
         <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45020</v>
+        <v>45043</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
         <v>15000</v>
@@ -1417,19 +1417,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>938</v>
+        <v>833</v>
       </c>
       <c r="T13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45062</v>
+        <v>45041</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>13444</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>747</v>
+        <v>833</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45033</v>
+        <v>45036</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45036</v>
+        <v>45021</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45021</v>
+        <v>45030</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45037</v>
+        <v>45001</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1807,13 +1807,13 @@
         <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>889</v>
+        <v>972</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45033</v>
+        <v>45044</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -530,10 +530,10 @@
         <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45014</v>
+        <v>45043</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45037</v>
+        <v>45030</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45062</v>
+        <v>45041</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>13444</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>747</v>
+        <v>833</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45049</v>
+        <v>45028</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45020</v>
+        <v>45014</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45028</v>
+        <v>45002</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
         <v>18000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
         <v>15000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45002</v>
+        <v>44999</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O12" t="n">
         <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45043</v>
+        <v>45020</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
         <v>15000</v>
@@ -1417,19 +1417,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>833</v>
+        <v>938</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45041</v>
+        <v>45062</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>13444</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>833</v>
+        <v>747</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45036</v>
+        <v>45033</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45030</v>
+        <v>45021</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45001</v>
+        <v>45037</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1807,13 +1807,13 @@
         <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>972</v>
+        <v>889</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45062</v>
+        <v>45089</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P14" t="n">
-        <v>13444</v>
+        <v>22500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>747</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45033</v>
+        <v>45062</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P15" t="n">
-        <v>15500</v>
+        <v>13444</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>861</v>
+        <v>747</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45036</v>
+        <v>45033</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S17" t="n">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45037</v>
+        <v>45021</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1807,28 +1807,108 @@
         <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
         <v>16000</v>
       </c>
       <c r="P18" t="n">
+        <v>15500</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>861</v>
+      </c>
+      <c r="T18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45037</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>60</v>
+      </c>
+      <c r="N19" t="n">
         <v>16000</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="O19" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S18" t="n">
+      <c r="S19" t="n">
         <v>889</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T19" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45044</v>
+        <v>45033</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -530,10 +530,10 @@
         <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45043</v>
+        <v>45014</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45030</v>
+        <v>45091</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45041</v>
+        <v>45089</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -767,13 +767,13 @@
         <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>833</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45001</v>
+        <v>45037</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -847,13 +847,13 @@
         <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>972</v>
+        <v>889</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45028</v>
+        <v>45062</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>13444</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>747</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45014</v>
+        <v>44999</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
         <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45050</v>
+        <v>45049</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45002</v>
+        <v>45020</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44999</v>
+        <v>45028</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
         <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45020</v>
+        <v>45044</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
         <v>15000</v>
@@ -1417,19 +1417,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>938</v>
+        <v>833</v>
       </c>
       <c r="T13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45089</v>
+        <v>45002</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45062</v>
+        <v>45043</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>13444</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>747</v>
+        <v>833</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45033</v>
+        <v>45041</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1650,10 +1650,10 @@
         <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45037</v>
+        <v>45030</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1884,31 +1884,111 @@
         </is>
       </c>
       <c r="M19" t="n">
+        <v>40</v>
+      </c>
+      <c r="N19" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O19" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>60</v>
       </c>
-      <c r="N19" t="n">
-        <v>16000</v>
-      </c>
-      <c r="O19" t="n">
-        <v>16000</v>
-      </c>
-      <c r="P19" t="n">
-        <v>16000</v>
-      </c>
-      <c r="Q19" t="inlineStr">
+      <c r="N20" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>17500</v>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S19" t="n">
-        <v>889</v>
-      </c>
-      <c r="T19" t="n">
+      <c r="S20" t="n">
+        <v>972</v>
+      </c>
+      <c r="T20" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45050</v>
+        <v>45096</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P11" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>778</v>
+        <v>1278</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45028</v>
+        <v>45050</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45044</v>
+        <v>45028</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45002</v>
+        <v>45044</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45043</v>
+        <v>45002</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45041</v>
+        <v>45043</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1730,10 +1730,10 @@
         <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S18" t="n">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45030</v>
+        <v>45021</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45001</v>
+        <v>45030</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1964,31 +1964,111 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
         <v>18000</v>
       </c>
       <c r="P20" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>60</v>
+      </c>
+      <c r="N21" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O21" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P21" t="n">
         <v>17500</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S20" t="n">
+      <c r="S21" t="n">
         <v>972</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T21" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45033</v>
+        <v>45021</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -542,7 +542,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45014</v>
+        <v>45001</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
         <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45091</v>
+        <v>45044</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1222</v>
+        <v>833</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45037</v>
+        <v>45049</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45062</v>
+        <v>45028</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>13444</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>747</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44999</v>
+        <v>45043</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1007,13 +1007,13 @@
         <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>972</v>
+        <v>833</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45049</v>
+        <v>45096</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>833</v>
+        <v>1278</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45020</v>
+        <v>45033</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>938</v>
+        <v>861</v>
       </c>
       <c r="T10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45096</v>
+        <v>45030</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1278</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45050</v>
+        <v>45020</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>778</v>
+        <v>938</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45028</v>
+        <v>45037</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45044</v>
+        <v>45091</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45002</v>
+        <v>45036</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45043</v>
+        <v>45062</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>13444</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>833</v>
+        <v>747</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45041</v>
+        <v>45002</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45036</v>
+        <v>45014</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45021</v>
+        <v>45041</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1890,10 +1890,10 @@
         <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45030</v>
+        <v>45050</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1967,13 +1967,13 @@
         <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45001</v>
+        <v>44999</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45044</v>
+        <v>45099</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45089</v>
+        <v>45044</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -767,13 +767,13 @@
         <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>833</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45049</v>
+        <v>45089</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>833</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45028</v>
+        <v>45049</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45043</v>
+        <v>45028</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45096</v>
+        <v>45043</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1278</v>
+        <v>833</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45033</v>
+        <v>45096</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="P10" t="n">
-        <v>15500</v>
+        <v>23000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>861</v>
+        <v>1278</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45030</v>
+        <v>45033</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45020</v>
+        <v>45030</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45037</v>
+        <v>45020</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>889</v>
+        <v>938</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45091</v>
+        <v>45037</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1222</v>
+        <v>889</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45036</v>
+        <v>45091</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>15500</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>861</v>
+        <v>1222</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45062</v>
+        <v>45036</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>13444</v>
+        <v>15500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>747</v>
+        <v>861</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45002</v>
+        <v>45062</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>13444</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>747</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45014</v>
+        <v>45002</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45041</v>
+        <v>45014</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45050</v>
+        <v>45041</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44999</v>
+        <v>45050</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -2044,31 +2044,111 @@
         </is>
       </c>
       <c r="M21" t="n">
+        <v>40</v>
+      </c>
+      <c r="N21" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O21" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>778</v>
+      </c>
+      <c r="T21" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>16</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>60</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N22" t="n">
         <v>17000</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O22" t="n">
         <v>18000</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P22" t="n">
         <v>17500</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S21" t="n">
+      <c r="S22" t="n">
         <v>972</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T22" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45001</v>
+        <v>45020</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>972</v>
+        <v>938</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45099</v>
+        <v>45043</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1222</v>
+        <v>833</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45044</v>
+        <v>45002</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45089</v>
+        <v>45041</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -847,13 +847,13 @@
         <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>833</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45049</v>
+        <v>45036</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45028</v>
+        <v>45014</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
         <v>18000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45096</v>
+        <v>45030</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1278</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45033</v>
+        <v>45001</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1247,13 +1247,13 @@
         <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45030</v>
+        <v>45021</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45020</v>
+        <v>45099</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>938</v>
+        <v>1222</v>
       </c>
       <c r="T13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45037</v>
+        <v>45091</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>889</v>
+        <v>1222</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
         <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1222</v>
+        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45036</v>
+        <v>45033</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45062</v>
+        <v>44999</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>13444</v>
+        <v>17500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>747</v>
+        <v>972</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45002</v>
+        <v>45062</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>18000</v>
+        <v>13444</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>747</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45014</v>
+        <v>45050</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45041</v>
+        <v>45037</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1967,13 +1967,13 @@
         <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45050</v>
+        <v>45096</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="O21" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P21" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>778</v>
+        <v>1278</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44999</v>
+        <v>45049</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N22" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>972</v>
+        <v>833</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45028</v>
+        <v>45096</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -527,13 +527,13 @@
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1278</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45020</v>
+        <v>45041</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,19 +617,19 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>938</v>
+        <v>833</v>
       </c>
       <c r="T3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45043</v>
+        <v>45028</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45002</v>
+        <v>45037</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45041</v>
+        <v>45033</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -850,10 +850,10 @@
         <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45036</v>
+        <v>44999</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -927,13 +927,13 @@
         <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45014</v>
+        <v>45043</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45044</v>
+        <v>45021</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1090,10 +1090,10 @@
         <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45030</v>
+        <v>45091</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45001</v>
+        <v>45036</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1247,13 +1247,13 @@
         <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
         <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>861</v>
+        <v>938</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45099</v>
+        <v>45044</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1222</v>
+        <v>833</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45091</v>
+        <v>45001</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>17500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1222</v>
+        <v>972</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45089</v>
+        <v>45050</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P15" t="n">
-        <v>22500</v>
+        <v>14000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>778</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45033</v>
+        <v>45030</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44999</v>
+        <v>45049</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>972</v>
+        <v>833</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45062</v>
+        <v>45002</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>13444</v>
+        <v>18000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>747</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45050</v>
+        <v>45014</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45037</v>
+        <v>45062</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N20" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>16000</v>
+        <v>13444</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>889</v>
+        <v>747</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
         <v>23000</v>
       </c>
       <c r="P21" t="n">
-        <v>23000</v>
+        <v>22500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1278</v>
+        <v>1250</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45049</v>
+        <v>45099</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45096</v>
+        <v>45037</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1278</v>
+        <v>889</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45041</v>
+        <v>45001</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -607,13 +607,13 @@
         <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>833</v>
+        <v>972</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45028</v>
+        <v>45036</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45037</v>
+        <v>45020</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>889</v>
+        <v>938</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45033</v>
+        <v>45044</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -850,10 +850,10 @@
         <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44999</v>
+        <v>45002</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
         <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45043</v>
+        <v>44999</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1007,13 +1007,13 @@
         <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>833</v>
+        <v>972</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45021</v>
+        <v>45049</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45091</v>
+        <v>45021</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>15500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1222</v>
+        <v>861</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45036</v>
+        <v>45062</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>15500</v>
+        <v>13444</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>861</v>
+        <v>747</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45020</v>
+        <v>45050</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>938</v>
+        <v>778</v>
       </c>
       <c r="T12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45044</v>
+        <v>45096</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>833</v>
+        <v>1278</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45001</v>
+        <v>45030</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
         <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45050</v>
+        <v>45033</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>778</v>
+        <v>861</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45030</v>
+        <v>45099</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1647,13 +1647,13 @@
         <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45049</v>
+        <v>45041</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
         <v>15000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45002</v>
+        <v>45028</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
         <v>18000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45014</v>
+        <v>45091</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45062</v>
+        <v>45014</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>13444</v>
+        <v>18000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>747</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45099</v>
+        <v>45043</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1222</v>
+        <v>833</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45037</v>
+        <v>45096</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>889</v>
+        <v>1278</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45001</v>
+        <v>45041</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -607,13 +607,13 @@
         <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>972</v>
+        <v>833</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45036</v>
+        <v>45028</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45020</v>
+        <v>45037</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>938</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45044</v>
+        <v>45033</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -850,10 +850,10 @@
         <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45002</v>
+        <v>44999</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
         <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44999</v>
+        <v>45043</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1007,13 +1007,13 @@
         <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>972</v>
+        <v>833</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45049</v>
+        <v>45021</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45021</v>
+        <v>45091</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>15500</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>861</v>
+        <v>1222</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45062</v>
+        <v>45036</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>13444</v>
+        <v>15500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>747</v>
+        <v>861</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45050</v>
+        <v>45020</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>778</v>
+        <v>938</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45096</v>
+        <v>45044</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1278</v>
+        <v>833</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45030</v>
+        <v>45001</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
         <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45033</v>
+        <v>45050</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P15" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>861</v>
+        <v>778</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45099</v>
+        <v>45030</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1647,13 +1647,13 @@
         <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1222</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N17" t="n">
         <v>15000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45028</v>
+        <v>45002</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
         <v>18000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45091</v>
+        <v>45014</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1222</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45014</v>
+        <v>45062</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>13444</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>747</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45043</v>
+        <v>45099</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45037</v>
+        <v>45041</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -527,13 +527,13 @@
         <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45001</v>
+        <v>45050</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>972</v>
+        <v>778</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45020</v>
+        <v>45096</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -767,29 +767,29 @@
         <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>938</v>
+        <v>1278</v>
       </c>
       <c r="T5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45044</v>
+        <v>45014</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45002</v>
+        <v>45020</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45049</v>
+        <v>45089</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>833</v>
+        <v>1250</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45021</v>
+        <v>45091</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>15500</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>861</v>
+        <v>1222</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45062</v>
+        <v>45028</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>13444</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>747</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45050</v>
+        <v>45002</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45096</v>
+        <v>45033</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>23000</v>
+        <v>15500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1278</v>
+        <v>861</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45030</v>
+        <v>45049</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45033</v>
+        <v>45099</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>15500</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>861</v>
+        <v>1222</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45099</v>
+        <v>45044</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1222</v>
+        <v>833</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45041</v>
+        <v>44999</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1727,13 +1727,13 @@
         <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>833</v>
+        <v>972</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45028</v>
+        <v>45062</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>18000</v>
+        <v>13444</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>747</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45091</v>
+        <v>45030</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1222</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45014</v>
+        <v>45021</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45089</v>
+        <v>45043</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -2047,13 +2047,13 @@
         <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1250</v>
+        <v>833</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45043</v>
+        <v>45037</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2127,13 +2127,13 @@
         <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45041</v>
+        <v>45037</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -527,13 +527,13 @@
         <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45050</v>
+        <v>45001</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>778</v>
+        <v>972</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45096</v>
+        <v>45020</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -767,29 +767,29 @@
         <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1278</v>
+        <v>938</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45014</v>
+        <v>45044</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45020</v>
+        <v>45002</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45001</v>
+        <v>44999</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45089</v>
+        <v>45049</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>833</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45091</v>
+        <v>45021</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>15500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1222</v>
+        <v>861</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45028</v>
+        <v>45062</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>13444</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>747</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45002</v>
+        <v>45050</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45033</v>
+        <v>45096</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="P13" t="n">
-        <v>15500</v>
+        <v>23000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>861</v>
+        <v>1278</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45049</v>
+        <v>45030</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45099</v>
+        <v>45033</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>15500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1222</v>
+        <v>861</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45044</v>
+        <v>45099</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44999</v>
+        <v>45041</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1727,13 +1727,13 @@
         <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>972</v>
+        <v>833</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45062</v>
+        <v>45028</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>13444</v>
+        <v>18000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>747</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45030</v>
+        <v>45091</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45021</v>
+        <v>45014</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45043</v>
+        <v>45089</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -2047,13 +2047,13 @@
         <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>833</v>
+        <v>1250</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45037</v>
+        <v>45043</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2127,13 +2127,13 @@
         <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45041</v>
+        <v>45099</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45050</v>
+        <v>45062</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O3" t="n">
         <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>14000</v>
+        <v>13444</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>778</v>
+        <v>747</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45036</v>
+        <v>45002</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45096</v>
+        <v>45021</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>23000</v>
+        <v>15500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1278</v>
+        <v>861</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45014</v>
+        <v>45033</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45020</v>
+        <v>45001</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>938</v>
+        <v>972</v>
       </c>
       <c r="T7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45001</v>
+        <v>45049</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>972</v>
+        <v>833</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45089</v>
+        <v>45043</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1087,13 +1087,13 @@
         <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>833</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45091</v>
+        <v>45036</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>15500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1222</v>
+        <v>861</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45028</v>
+        <v>45030</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
         <v>18000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45002</v>
+        <v>45014</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45033</v>
+        <v>45028</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45049</v>
+        <v>45041</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
         <v>15000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45099</v>
+        <v>45020</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1222</v>
+        <v>938</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45044</v>
+        <v>45091</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44999</v>
+        <v>45089</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1727,13 +1727,13 @@
         <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P17" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>972</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45062</v>
+        <v>45050</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
         <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>13444</v>
+        <v>14000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>747</v>
+        <v>778</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45030</v>
+        <v>45096</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1278</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45021</v>
+        <v>45037</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1967,13 +1967,13 @@
         <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O20" t="n">
         <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>861</v>
+        <v>889</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45037</v>
+        <v>44999</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2127,13 +2127,13 @@
         <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>889</v>
+        <v>972</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45099</v>
+        <v>45028</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1222</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45062</v>
+        <v>45099</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>13444</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>747</v>
+        <v>1222</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45002</v>
+        <v>45037</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -782,7 +782,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45033</v>
+        <v>45049</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45001</v>
+        <v>45014</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
         <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45043</v>
+        <v>45021</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1090,10 +1090,10 @@
         <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45036</v>
+        <v>44999</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1167,13 +1167,13 @@
         <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45030</v>
+        <v>45091</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45014</v>
+        <v>45001</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O12" t="n">
         <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45028</v>
+        <v>45096</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1407,13 +1407,13 @@
         <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1278</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45041</v>
+        <v>45030</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
         <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1222</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45089</v>
+        <v>45062</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O17" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P17" t="n">
-        <v>22500</v>
+        <v>13444</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>747</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45050</v>
+        <v>45041</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45096</v>
+        <v>45002</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1278</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1967,13 +1967,13 @@
         <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45044</v>
+        <v>45043</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44999</v>
+        <v>45033</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2127,13 +2127,13 @@
         <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45028</v>
+        <v>45021</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45037</v>
+        <v>45001</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -687,13 +687,13 @@
         <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>889</v>
+        <v>972</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -767,13 +767,13 @@
         <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
         <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>861</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45049</v>
+        <v>45096</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>833</v>
+        <v>1278</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45014</v>
+        <v>45043</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45021</v>
+        <v>45002</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44999</v>
+        <v>45020</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>972</v>
+        <v>938</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45091</v>
+        <v>45062</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>13444</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1222</v>
+        <v>747</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45001</v>
+        <v>45033</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1327,13 +1327,13 @@
         <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45096</v>
+        <v>45030</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1278</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45030</v>
+        <v>45044</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45020</v>
+        <v>45049</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N15" t="n">
         <v>15000</v>
@@ -1577,19 +1577,19 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>938</v>
+        <v>833</v>
       </c>
       <c r="T15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45089</v>
+        <v>45014</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45062</v>
+        <v>45036</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>13444</v>
+        <v>15500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>747</v>
+        <v>861</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45041</v>
+        <v>45091</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45002</v>
+        <v>45089</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45044</v>
+        <v>45028</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45043</v>
+        <v>45041</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45033</v>
+        <v>44999</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2127,13 +2127,13 @@
         <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>861</v>
+        <v>938</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45099</v>
+        <v>45021</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>15500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1222</v>
+        <v>861</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45001</v>
+        <v>45044</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -687,13 +687,13 @@
         <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>972</v>
+        <v>833</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45037</v>
+        <v>45049</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
         <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>23000</v>
+        <v>22500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1278</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45043</v>
+        <v>45037</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -927,13 +927,13 @@
         <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45050</v>
+        <v>45030</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1007,13 +1007,13 @@
         <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45002</v>
+        <v>45001</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O9" t="n">
         <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45020</v>
+        <v>45043</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>15000</v>
@@ -1177,19 +1177,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>938</v>
+        <v>833</v>
       </c>
       <c r="T10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45062</v>
+        <v>45041</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>13444</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>747</v>
+        <v>833</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45030</v>
+        <v>45096</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1278</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45044</v>
+        <v>44999</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1487,13 +1487,13 @@
         <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>833</v>
+        <v>972</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45049</v>
+        <v>45036</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
         <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45014</v>
+        <v>45091</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45036</v>
+        <v>45050</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P17" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>861</v>
+        <v>778</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45091</v>
+        <v>45062</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>13444</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1222</v>
+        <v>747</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45089</v>
+        <v>45014</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45028</v>
+        <v>45099</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45041</v>
+        <v>45028</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44999</v>
+        <v>45002</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
         <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45020</v>
+        <v>45001</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>938</v>
+        <v>972</v>
       </c>
       <c r="T2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45021</v>
+        <v>45002</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45044</v>
+        <v>45050</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45049</v>
+        <v>45037</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45089</v>
+        <v>45099</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
         <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>22500</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>1222</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45037</v>
+        <v>45036</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -927,13 +927,13 @@
         <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
         <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>889</v>
+        <v>861</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45030</v>
+        <v>45028</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
         <v>18000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45001</v>
+        <v>45049</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>972</v>
+        <v>833</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45043</v>
+        <v>45021</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1170,10 +1170,10 @@
         <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45033</v>
+        <v>45030</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44999</v>
+        <v>45062</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P14" t="n">
-        <v>17500</v>
+        <v>13444</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>972</v>
+        <v>747</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45036</v>
+        <v>45014</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45091</v>
+        <v>45043</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1222</v>
+        <v>833</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45050</v>
+        <v>44999</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>778</v>
+        <v>972</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45062</v>
+        <v>45020</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>13444</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>747</v>
+        <v>938</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45014</v>
+        <v>45033</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45099</v>
+        <v>45089</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
         <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1222</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45028</v>
+        <v>45044</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45002</v>
+        <v>45091</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45001</v>
+        <v>44999</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45050</v>
+        <v>45037</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>778</v>
+        <v>889</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45037</v>
+        <v>45091</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>889</v>
+        <v>1222</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45099</v>
+        <v>45041</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1222</v>
+        <v>833</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45036</v>
+        <v>45021</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45028</v>
+        <v>45062</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>13444</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>747</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45049</v>
+        <v>45001</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>833</v>
+        <v>972</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45021</v>
+        <v>45033</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45041</v>
+        <v>45043</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45030</v>
+        <v>45049</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45096</v>
+        <v>45030</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1278</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45062</v>
+        <v>45014</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>13444</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>747</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45014</v>
+        <v>45028</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
         <v>18000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45043</v>
+        <v>45036</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1650,10 +1650,10 @@
         <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44999</v>
+        <v>45020</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>972</v>
+        <v>938</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45020</v>
+        <v>45096</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1807,29 +1807,29 @@
         <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>938</v>
+        <v>1278</v>
       </c>
       <c r="T18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45033</v>
+        <v>45044</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1890,10 +1890,10 @@
         <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45044</v>
+        <v>45099</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45091</v>
+        <v>45050</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P22" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1222</v>
+        <v>778</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45037</v>
+        <v>45050</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>889</v>
+        <v>778</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45091</v>
+        <v>45037</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1222</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45041</v>
+        <v>45099</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45062</v>
+        <v>45028</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>13444</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>747</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45001</v>
+        <v>45049</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>972</v>
+        <v>833</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45033</v>
+        <v>45021</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45043</v>
+        <v>45041</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45049</v>
+        <v>45030</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45030</v>
+        <v>45096</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1278</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45014</v>
+        <v>45062</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>13444</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>747</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45028</v>
+        <v>45014</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
         <v>18000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45036</v>
+        <v>45043</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1650,10 +1650,10 @@
         <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45020</v>
+        <v>44999</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>938</v>
+        <v>972</v>
       </c>
       <c r="T17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45096</v>
+        <v>45020</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1807,29 +1807,29 @@
         <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1278</v>
+        <v>938</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45044</v>
+        <v>45033</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1890,10 +1890,10 @@
         <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45099</v>
+        <v>45044</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1222</v>
+        <v>833</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45050</v>
+        <v>45091</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>778</v>
+        <v>1222</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44999</v>
+        <v>45002</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
         <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45002</v>
+        <v>45030</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
         <v>18000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45037</v>
+        <v>45096</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>889</v>
+        <v>1278</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45091</v>
+        <v>45037</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1222</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45041</v>
+        <v>45020</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
@@ -857,19 +857,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>833</v>
+        <v>938</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45021</v>
+        <v>45089</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -927,13 +927,13 @@
         <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="P7" t="n">
-        <v>15500</v>
+        <v>22500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>861</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45001</v>
+        <v>45041</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1087,13 +1087,13 @@
         <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>972</v>
+        <v>833</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45033</v>
+        <v>45014</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45043</v>
+        <v>45050</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45049</v>
+        <v>45021</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
         <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45030</v>
+        <v>45091</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45014</v>
+        <v>45033</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45028</v>
+        <v>44999</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
         <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45036</v>
+        <v>45028</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45020</v>
+        <v>45043</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
         <v>15000</v>
@@ -1737,19 +1737,19 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>938</v>
+        <v>833</v>
       </c>
       <c r="T17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1278</v>
+        <v>1222</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45044</v>
+        <v>45001</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1887,13 +1887,13 @@
         <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>833</v>
+        <v>972</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45089</v>
+        <v>45044</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1967,13 +1967,13 @@
         <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1250</v>
+        <v>833</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45099</v>
+        <v>45049</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1222</v>
+        <v>833</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45050</v>
+        <v>45036</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>778</v>
+        <v>861</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45002</v>
+        <v>45096</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1278</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45030</v>
+        <v>45014</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
         <v>18000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
         <v>23000</v>
       </c>
       <c r="P4" t="n">
-        <v>23000</v>
+        <v>22500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1278</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45037</v>
+        <v>45062</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>13444</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>889</v>
+        <v>747</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45020</v>
+        <v>45028</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -847,29 +847,29 @@
         <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45089</v>
+        <v>45043</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -927,13 +927,13 @@
         <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>833</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45062</v>
+        <v>45037</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>13444</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>747</v>
+        <v>889</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45041</v>
+        <v>44999</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1087,13 +1087,13 @@
         <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>833</v>
+        <v>972</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45014</v>
+        <v>45091</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45050</v>
+        <v>45041</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45021</v>
+        <v>45033</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45091</v>
+        <v>45020</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1407,29 +1407,29 @@
         <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1222</v>
+        <v>938</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45033</v>
+        <v>45021</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44999</v>
+        <v>45044</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1567,13 +1567,13 @@
         <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>972</v>
+        <v>833</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45028</v>
+        <v>45099</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45043</v>
+        <v>45001</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1727,13 +1727,13 @@
         <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>833</v>
+        <v>972</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45099</v>
+        <v>45036</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>15500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1222</v>
+        <v>861</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45001</v>
+        <v>45050</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P19" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>972</v>
+        <v>778</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N20" t="n">
         <v>15000</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45049</v>
+        <v>45030</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45036</v>
+        <v>45002</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
